--- a/BudgetFot_template.xlsx
+++ b/BudgetFot_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC57809-4D23-41EB-82EA-E940E49F3476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65FF07-D48C-4624-BF02-86090E3CC311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1230" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>point_code</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>ЦО-ЦО3558</t>
+  </si>
+  <si>
+    <t>согласовано</t>
   </si>
 </sst>
 </file>
@@ -394,6 +397,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -420,8 +424,8 @@
       <c r="C2">
         <v>50000</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/BudgetFot_template.xlsx
+++ b/BudgetFot_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65FF07-D48C-4624-BF02-86090E3CC311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250431FC-11DE-40E2-8AB1-4C0CFE63288A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1230" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C2">
         <v>50000</v>

--- a/BudgetFot_template.xlsx
+++ b/BudgetFot_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250431FC-11DE-40E2-8AB1-4C0CFE63288A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466B985-330A-449D-A366-A781C5434EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="C2">
         <v>50000</v>

--- a/BudgetFot_template.xlsx
+++ b/BudgetFot_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466B985-330A-449D-A366-A781C5434EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B3611-25AD-42DF-A04B-35FDE5656D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1520" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="4" max="4" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="C2">
         <v>50000</v>
